--- a/natmiOut/OldD2/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
+++ b/natmiOut/OldD2/LR-pairs_lrc2p/Sema4d-Plxnb1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="164" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T25"/>
+  <dimension ref="A1:T37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -537,52 +537,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H2">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I2">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J2">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>1.518772895381</v>
+        <v>1.6027375</v>
       </c>
       <c r="N2">
-        <v>1.518772895381</v>
+        <v>3.205475</v>
       </c>
       <c r="O2">
-        <v>0.1808224529738624</v>
+        <v>0.1782771149667683</v>
       </c>
       <c r="P2">
-        <v>0.1808224529738624</v>
+        <v>0.1591486486285207</v>
       </c>
       <c r="Q2">
-        <v>0.8741617972523281</v>
+        <v>1.04128493048125</v>
       </c>
       <c r="R2">
-        <v>0.8741617972523281</v>
+        <v>4.165139721925</v>
       </c>
       <c r="S2">
-        <v>0.0009075103093532818</v>
+        <v>0.0009672989121870775</v>
       </c>
       <c r="T2">
-        <v>0.0009075103093532818</v>
+        <v>0.000581785666696433</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,52 +599,52 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H3">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I3">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J3">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.264357165173292</v>
+        <v>0.330031</v>
       </c>
       <c r="N3">
-        <v>0.264357165173292</v>
+        <v>0.990093</v>
       </c>
       <c r="O3">
-        <v>0.03147390318409627</v>
+        <v>0.03671030005200323</v>
       </c>
       <c r="P3">
-        <v>0.03147390318409627</v>
+        <v>0.04915713364370582</v>
       </c>
       <c r="Q3">
-        <v>0.1521563463024825</v>
+        <v>0.2144183354365</v>
       </c>
       <c r="R3">
-        <v>0.1521563463024825</v>
+        <v>1.286510012619</v>
       </c>
       <c r="S3">
-        <v>0.0001579609785477424</v>
+        <v>0.0001991833517890568</v>
       </c>
       <c r="T3">
-        <v>0.0001579609785477424</v>
+        <v>0.0001796993943476307</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,55 +658,55 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H4">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I4">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J4">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K4">
         <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>1.39568996299457</v>
+        <v>0.147963</v>
       </c>
       <c r="N4">
-        <v>1.39568996299457</v>
+        <v>0.443889</v>
       </c>
       <c r="O4">
-        <v>0.1661684136365676</v>
+        <v>0.01645835126577368</v>
       </c>
       <c r="P4">
-        <v>0.1661684136365676</v>
+        <v>0.02203864777952266</v>
       </c>
       <c r="Q4">
-        <v>0.8033188175591612</v>
+        <v>0.09613030341449999</v>
       </c>
       <c r="R4">
-        <v>0.8033188175591612</v>
+        <v>0.576781820487</v>
       </c>
       <c r="S4">
-        <v>0.0008339647316136309</v>
+        <v>8.929999388167841E-05</v>
       </c>
       <c r="T4">
-        <v>0.0008339647316136309</v>
+        <v>8.056473933011892E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,60 +720,60 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>0.5755711073794449</v>
+        <v>0.6496915</v>
       </c>
       <c r="H5">
-        <v>0.5755711073794449</v>
+        <v>1.299383</v>
       </c>
       <c r="I5">
-        <v>0.005018792160088996</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J5">
-        <v>0.005018792160088996</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>5.22042946346333</v>
+        <v>0.201726</v>
       </c>
       <c r="N5">
-        <v>5.22042946346333</v>
+        <v>0.605178</v>
       </c>
       <c r="O5">
-        <v>0.6215352302054737</v>
+        <v>0.02243856482660842</v>
       </c>
       <c r="P5">
-        <v>0.6215352302054737</v>
+        <v>0.03004648636464514</v>
       </c>
       <c r="Q5">
-        <v>3.004728367281871</v>
+        <v>0.131059667529</v>
       </c>
       <c r="R5">
-        <v>3.004728367281871</v>
+        <v>0.786358005174</v>
       </c>
       <c r="S5">
-        <v>0.003119356140574341</v>
+        <v>0.0001217475353012271</v>
       </c>
       <c r="T5">
-        <v>0.003119356140574341</v>
+        <v>0.0001098382879916436</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
         <v>26</v>
@@ -782,60 +782,60 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>24</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>0.721663941584619</v>
+        <v>0.6496915</v>
       </c>
       <c r="H6">
-        <v>0.721663941584619</v>
+        <v>1.299383</v>
       </c>
       <c r="I6">
-        <v>0.006292673982080351</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J6">
-        <v>0.006292673982080351</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>1.518772895381</v>
+        <v>1.481375666666667</v>
       </c>
       <c r="N6">
-        <v>1.518772895381</v>
+        <v>4.444127</v>
       </c>
       <c r="O6">
-        <v>0.1808224529738624</v>
+        <v>0.1647776881961684</v>
       </c>
       <c r="P6">
-        <v>0.1808224529738624</v>
+        <v>0.2206464896414795</v>
       </c>
       <c r="Q6">
-        <v>1.096043634052537</v>
+        <v>0.9624371789401667</v>
       </c>
       <c r="R6">
-        <v>1.096043634052537</v>
+        <v>5.774623073641</v>
       </c>
       <c r="S6">
-        <v>0.001137856745204572</v>
+        <v>0.0008940534996573509</v>
       </c>
       <c r="T6">
-        <v>0.001137856745204572</v>
+        <v>0.0008065978956562189</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
         <v>26</v>
@@ -844,55 +844,55 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>0.721663941584619</v>
+        <v>0.6496915</v>
       </c>
       <c r="H7">
-        <v>0.721663941584619</v>
+        <v>1.299383</v>
       </c>
       <c r="I7">
-        <v>0.006292673982080351</v>
+        <v>0.005425816501278846</v>
       </c>
       <c r="J7">
-        <v>0.006292673982080351</v>
+        <v>0.003655611729725819</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.264357165173292</v>
+        <v>5.226314</v>
       </c>
       <c r="N7">
-        <v>0.264357165173292</v>
+        <v>10.452628</v>
       </c>
       <c r="O7">
-        <v>0.03147390318409627</v>
+        <v>0.5813379806926779</v>
       </c>
       <c r="P7">
-        <v>0.03147390318409627</v>
+        <v>0.5189625939421262</v>
       </c>
       <c r="Q7">
-        <v>0.1907770338050941</v>
+        <v>3.395491782131</v>
       </c>
       <c r="R7">
-        <v>0.1907770338050941</v>
+        <v>13.581967128524</v>
       </c>
       <c r="S7">
-        <v>0.0001980550116810785</v>
+        <v>0.003154233208462455</v>
       </c>
       <c r="T7">
-        <v>0.0001980550116810785</v>
+        <v>0.001897125745703774</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,55 +906,55 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H8">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I8">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J8">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>1.39568996299457</v>
+        <v>1.6027375</v>
       </c>
       <c r="N8">
-        <v>1.39568996299457</v>
+        <v>3.205475</v>
       </c>
       <c r="O8">
-        <v>0.1661684136365676</v>
+        <v>0.1782771149667683</v>
       </c>
       <c r="P8">
-        <v>0.1661684136365676</v>
+        <v>0.1591486486285207</v>
       </c>
       <c r="Q8">
-        <v>1.007219119924752</v>
+        <v>1.599068299616667</v>
       </c>
       <c r="R8">
-        <v>1.007219119924752</v>
+        <v>9.594409797699999</v>
       </c>
       <c r="S8">
-        <v>0.001045643653134395</v>
+        <v>0.001485450313793717</v>
       </c>
       <c r="T8">
-        <v>0.001045643653134395</v>
+        <v>0.001340144742643568</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,122 +968,122 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>0.721663941584619</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H9">
-        <v>0.721663941584619</v>
+        <v>2.993132</v>
       </c>
       <c r="I9">
-        <v>0.006292673982080351</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J9">
-        <v>0.006292673982080351</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>5.22042946346333</v>
+        <v>0.330031</v>
       </c>
       <c r="N9">
-        <v>5.22042946346333</v>
+        <v>0.990093</v>
       </c>
       <c r="O9">
-        <v>0.6215352302054737</v>
+        <v>0.03671030005200323</v>
       </c>
       <c r="P9">
-        <v>0.6215352302054737</v>
+        <v>0.04915713364370582</v>
       </c>
       <c r="Q9">
-        <v>3.767395703367424</v>
+        <v>0.3292754490306667</v>
       </c>
       <c r="R9">
-        <v>3.767395703367424</v>
+        <v>2.963479041276</v>
       </c>
       <c r="S9">
-        <v>0.003911118572060306</v>
+        <v>0.0003058795669981231</v>
       </c>
       <c r="T9">
-        <v>0.003911118572060306</v>
+        <v>0.000413938005655386</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>26</v>
+      </c>
+      <c r="C10" t="s">
+        <v>27</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>26</v>
-      </c>
-      <c r="C10" t="s">
-        <v>27</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>37.7450692286778</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H10">
-        <v>37.7450692286778</v>
+        <v>2.993132</v>
       </c>
       <c r="I10">
-        <v>0.3291246817259363</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J10">
-        <v>0.3291246817259363</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K10">
         <v>1</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.518772895381</v>
+        <v>0.147963</v>
       </c>
       <c r="N10">
-        <v>1.518772895381</v>
+        <v>0.443889</v>
       </c>
       <c r="O10">
-        <v>0.1808224529738624</v>
+        <v>0.01645835126577368</v>
       </c>
       <c r="P10">
-        <v>0.1808224529738624</v>
+        <v>0.02203864777952266</v>
       </c>
       <c r="Q10">
-        <v>57.32618807879527</v>
+        <v>0.147624263372</v>
       </c>
       <c r="R10">
-        <v>57.32618807879527</v>
+        <v>1.328618370348</v>
       </c>
       <c r="S10">
-        <v>0.05951313228392555</v>
+        <v>0.0001371351732768839</v>
       </c>
       <c r="T10">
-        <v>0.05951313228392555</v>
+        <v>0.0001855810791434377</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1092,60 +1092,60 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>37.7450692286778</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H11">
-        <v>37.7450692286778</v>
+        <v>2.993132</v>
       </c>
       <c r="I11">
-        <v>0.3291246817259363</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J11">
-        <v>0.3291246817259363</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>0.264357165173292</v>
+        <v>0.201726</v>
       </c>
       <c r="N11">
-        <v>0.264357165173292</v>
+        <v>0.605178</v>
       </c>
       <c r="O11">
-        <v>0.03147390318409627</v>
+        <v>0.02243856482660842</v>
       </c>
       <c r="P11">
-        <v>0.03147390318409627</v>
+        <v>0.03004648636464514</v>
       </c>
       <c r="Q11">
-        <v>9.978179500562918</v>
+        <v>0.201264181944</v>
       </c>
       <c r="R11">
-        <v>9.978179500562918</v>
+        <v>1.811377637496</v>
       </c>
       <c r="S11">
-        <v>0.01035883836813862</v>
+        <v>0.0001869638353132384</v>
       </c>
       <c r="T11">
-        <v>0.01035883836813862</v>
+        <v>0.0002530127719179059</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1157,57 +1157,57 @@
         <v>24</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>37.7450692286778</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H12">
-        <v>37.7450692286778</v>
+        <v>2.993132</v>
       </c>
       <c r="I12">
-        <v>0.3291246817259363</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J12">
-        <v>0.3291246817259363</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>1.39568996299457</v>
+        <v>1.481375666666667</v>
       </c>
       <c r="N12">
-        <v>1.39568996299457</v>
+        <v>4.444127</v>
       </c>
       <c r="O12">
-        <v>0.1661684136365676</v>
+        <v>0.1647776881961684</v>
       </c>
       <c r="P12">
-        <v>0.1661684136365676</v>
+        <v>0.2206464896414795</v>
       </c>
       <c r="Q12">
-        <v>52.6804142750008</v>
+        <v>1.477984303973778</v>
       </c>
       <c r="R12">
-        <v>52.6804142750008</v>
+        <v>13.301858735764</v>
       </c>
       <c r="S12">
-        <v>0.05469012625103905</v>
+        <v>0.001372969652794907</v>
       </c>
       <c r="T12">
-        <v>0.05469012625103905</v>
+        <v>0.001858000275993522</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1219,57 +1219,57 @@
         <v>25</v>
       </c>
       <c r="E13">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F13">
         <v>1</v>
       </c>
       <c r="G13">
-        <v>37.7450692286778</v>
+        <v>0.9977106666666667</v>
       </c>
       <c r="H13">
-        <v>37.7450692286778</v>
+        <v>2.993132</v>
       </c>
       <c r="I13">
-        <v>0.3291246817259363</v>
+        <v>0.008332254614231399</v>
       </c>
       <c r="J13">
-        <v>0.3291246817259363</v>
+        <v>0.008420710789519103</v>
       </c>
       <c r="K13">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L13">
         <v>1</v>
       </c>
       <c r="M13">
-        <v>5.22042946346333</v>
+        <v>5.226314</v>
       </c>
       <c r="N13">
-        <v>5.22042946346333</v>
+        <v>10.452628</v>
       </c>
       <c r="O13">
-        <v>0.6215352302054737</v>
+        <v>0.5813379806926779</v>
       </c>
       <c r="P13">
-        <v>0.6215352302054737</v>
+        <v>0.5189625939421262</v>
       </c>
       <c r="Q13">
-        <v>197.0454715018527</v>
+        <v>5.214349225149334</v>
       </c>
       <c r="R13">
-        <v>197.0454715018527</v>
+        <v>31.28609535089601</v>
       </c>
       <c r="S13">
-        <v>0.2045625848228331</v>
+        <v>0.00484385607205453</v>
       </c>
       <c r="T13">
-        <v>0.2045625848228331</v>
+        <v>0.004370033914165283</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1281,57 +1281,57 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
         <v>1</v>
       </c>
       <c r="G14">
-        <v>72.13232617757799</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H14">
-        <v>72.13232617757799</v>
+        <v>126.169628</v>
       </c>
       <c r="I14">
-        <v>0.6289703365362832</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J14">
-        <v>0.6289703365362832</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K14">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L14">
         <v>1</v>
       </c>
       <c r="M14">
-        <v>1.518772895381</v>
+        <v>1.6027375</v>
       </c>
       <c r="N14">
-        <v>1.518772895381</v>
+        <v>3.205475</v>
       </c>
       <c r="O14">
-        <v>0.1808224529738624</v>
+        <v>0.1782771149667683</v>
       </c>
       <c r="P14">
-        <v>0.1808224529738624</v>
+        <v>0.1591486486285207</v>
       </c>
       <c r="Q14">
-        <v>109.5526218792868</v>
+        <v>67.40559805221666</v>
       </c>
       <c r="R14">
-        <v>109.5526218792868</v>
+        <v>404.4335883133</v>
       </c>
       <c r="S14">
-        <v>0.1137319591002865</v>
+        <v>0.0626162539787208</v>
       </c>
       <c r="T14">
-        <v>0.1137319591002865</v>
+        <v>0.05649118169378924</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1343,57 +1343,57 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
         <v>1</v>
       </c>
       <c r="G15">
-        <v>72.13232617757799</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H15">
-        <v>72.13232617757799</v>
+        <v>126.169628</v>
       </c>
       <c r="I15">
-        <v>0.6289703365362832</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J15">
-        <v>0.6289703365362832</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L15">
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.264357165173292</v>
+        <v>0.330031</v>
       </c>
       <c r="N15">
-        <v>0.264357165173292</v>
+        <v>0.990093</v>
       </c>
       <c r="O15">
-        <v>0.03147390318409627</v>
+        <v>0.03671030005200323</v>
       </c>
       <c r="P15">
-        <v>0.03147390318409627</v>
+        <v>0.04915713364370582</v>
       </c>
       <c r="Q15">
-        <v>19.06869726565976</v>
+        <v>13.87996283282267</v>
       </c>
       <c r="R15">
-        <v>19.06869726565976</v>
+        <v>124.919665495404</v>
       </c>
       <c r="S15">
-        <v>0.01979615147781143</v>
+        <v>0.01289375516380643</v>
       </c>
       <c r="T15">
-        <v>0.01979615147781143</v>
+        <v>0.01744874739523748</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B16" t="s">
         <v>26</v>
@@ -1402,184 +1402,184 @@
         <v>27</v>
       </c>
       <c r="D16" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
         <v>1</v>
       </c>
       <c r="G16">
-        <v>72.13232617757799</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H16">
-        <v>72.13232617757799</v>
+        <v>126.169628</v>
       </c>
       <c r="I16">
-        <v>0.6289703365362832</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J16">
-        <v>0.6289703365362832</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K16">
         <v>1</v>
       </c>
       <c r="L16">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M16">
-        <v>1.39568996299457</v>
+        <v>0.147963</v>
       </c>
       <c r="N16">
-        <v>1.39568996299457</v>
+        <v>0.443889</v>
       </c>
       <c r="O16">
-        <v>0.1661684136365676</v>
+        <v>0.01645835126577368</v>
       </c>
       <c r="P16">
-        <v>0.1661684136365676</v>
+        <v>0.02203864777952266</v>
       </c>
       <c r="Q16">
-        <v>100.6743636534961</v>
+        <v>6.222812222587999</v>
       </c>
       <c r="R16">
-        <v>100.6743636534961</v>
+        <v>56.005310003292</v>
       </c>
       <c r="S16">
-        <v>0.1045150030466922</v>
+        <v>0.005780665135403312</v>
       </c>
       <c r="T16">
-        <v>0.1045150030466922</v>
+        <v>0.007822807587291871</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>23</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>25</v>
-      </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
         <v>1</v>
       </c>
       <c r="G17">
-        <v>72.13232617757799</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H17">
-        <v>72.13232617757799</v>
+        <v>126.169628</v>
       </c>
       <c r="I17">
-        <v>0.6289703365362832</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J17">
-        <v>0.6289703365362832</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K17">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L17">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M17">
-        <v>5.22042946346333</v>
+        <v>0.201726</v>
       </c>
       <c r="N17">
-        <v>5.22042946346333</v>
+        <v>0.605178</v>
       </c>
       <c r="O17">
-        <v>0.6215352302054737</v>
+        <v>0.02243856482660842</v>
       </c>
       <c r="P17">
-        <v>0.6215352302054737</v>
+        <v>0.03004648636464514</v>
       </c>
       <c r="Q17">
-        <v>376.5617208455754</v>
+        <v>8.483898125975999</v>
       </c>
       <c r="R17">
-        <v>376.5617208455754</v>
+        <v>76.35508313378401</v>
       </c>
       <c r="S17">
-        <v>0.3909272229114931</v>
+        <v>0.007881094970393736</v>
       </c>
       <c r="T17">
-        <v>0.3909272229114931</v>
+        <v>0.01066525876978731</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>26</v>
+      </c>
+      <c r="C18" t="s">
+        <v>27</v>
+      </c>
+      <c r="D18" t="s">
         <v>24</v>
       </c>
-      <c r="B18" t="s">
-        <v>26</v>
-      </c>
-      <c r="C18" t="s">
-        <v>27</v>
-      </c>
-      <c r="D18" t="s">
-        <v>20</v>
-      </c>
       <c r="E18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18">
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.62863516954816</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H18">
-        <v>0.62863516954816</v>
+        <v>126.169628</v>
       </c>
       <c r="I18">
-        <v>0.005481493459338287</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J18">
-        <v>0.005481493459338287</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K18">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L18">
         <v>1</v>
       </c>
       <c r="M18">
-        <v>1.518772895381</v>
+        <v>1.481375666666667</v>
       </c>
       <c r="N18">
-        <v>1.518772895381</v>
+        <v>4.444127</v>
       </c>
       <c r="O18">
-        <v>0.1808224529738624</v>
+        <v>0.1647776881961684</v>
       </c>
       <c r="P18">
-        <v>0.1808224529738624</v>
+        <v>0.2206464896414795</v>
       </c>
       <c r="Q18">
-        <v>0.9547540565929848</v>
+        <v>62.30153893052844</v>
       </c>
       <c r="R18">
-        <v>0.9547540565929848</v>
+        <v>560.713850374756</v>
       </c>
       <c r="S18">
-        <v>0.0009911770932777317</v>
+        <v>0.05787485160975945</v>
       </c>
       <c r="T18">
-        <v>0.0009911770932777317</v>
+        <v>0.07832036931414985</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B19" t="s">
         <v>26</v>
@@ -1588,60 +1588,60 @@
         <v>27</v>
       </c>
       <c r="D19" t="s">
-        <v>21</v>
+        <v>25</v>
       </c>
       <c r="E19">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F19">
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.62863516954816</v>
+        <v>42.05654266666667</v>
       </c>
       <c r="H19">
-        <v>0.62863516954816</v>
+        <v>126.169628</v>
       </c>
       <c r="I19">
-        <v>0.005481493459338287</v>
+        <v>0.3512299040198892</v>
       </c>
       <c r="J19">
-        <v>0.005481493459338287</v>
+        <v>0.354958601160661</v>
       </c>
       <c r="K19">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L19">
         <v>1</v>
       </c>
       <c r="M19">
-        <v>0.264357165173292</v>
+        <v>5.226314</v>
       </c>
       <c r="N19">
-        <v>0.264357165173292</v>
+        <v>10.452628</v>
       </c>
       <c r="O19">
-        <v>0.03147390318409627</v>
+        <v>0.5813379806926779</v>
       </c>
       <c r="P19">
-        <v>0.03147390318409627</v>
+        <v>0.5189625939421262</v>
       </c>
       <c r="Q19">
-        <v>0.1661842113499833</v>
+        <v>219.8006977303973</v>
       </c>
       <c r="R19">
-        <v>0.1661842113499833</v>
+        <v>1318.804186382384</v>
       </c>
       <c r="S19">
-        <v>0.0001725239944434702</v>
+        <v>0.2041832831618055</v>
       </c>
       <c r="T19">
-        <v>0.0001725239944434702</v>
+        <v>0.1842102364004052</v>
       </c>
     </row>
     <row r="20" spans="1:20">
       <c r="A20" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B20" t="s">
         <v>26</v>
@@ -1650,60 +1650,60 @@
         <v>27</v>
       </c>
       <c r="D20" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E20">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F20">
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.62863516954816</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H20">
-        <v>0.62863516954816</v>
+        <v>216.653855</v>
       </c>
       <c r="I20">
-        <v>0.005481493459338287</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J20">
-        <v>0.005481493459338287</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K20">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L20">
         <v>1</v>
       </c>
       <c r="M20">
-        <v>1.39568996299457</v>
+        <v>1.6027375</v>
       </c>
       <c r="N20">
-        <v>1.39568996299457</v>
+        <v>3.205475</v>
       </c>
       <c r="O20">
-        <v>0.1661684136365676</v>
+        <v>0.1782771149667683</v>
       </c>
       <c r="P20">
-        <v>0.1661684136365676</v>
+        <v>0.1591486486285207</v>
       </c>
       <c r="Q20">
-        <v>0.8773797965237567</v>
+        <v>115.7464193093542</v>
       </c>
       <c r="R20">
-        <v>0.8773797965237567</v>
+        <v>694.478515856125</v>
       </c>
       <c r="S20">
-        <v>0.0009108510724974643</v>
+        <v>0.1075223334267812</v>
       </c>
       <c r="T20">
-        <v>0.0009108510724974643</v>
+        <v>0.09700458407838744</v>
       </c>
     </row>
     <row r="21" spans="1:20">
       <c r="A21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B21" t="s">
         <v>26</v>
@@ -1712,60 +1712,60 @@
         <v>27</v>
       </c>
       <c r="D21" t="s">
-        <v>25</v>
+        <v>21</v>
       </c>
       <c r="E21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F21">
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.62863516954816</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H21">
-        <v>0.62863516954816</v>
+        <v>216.653855</v>
       </c>
       <c r="I21">
-        <v>0.005481493459338287</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J21">
-        <v>0.005481493459338287</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K21">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L21">
         <v>1</v>
       </c>
       <c r="M21">
-        <v>5.22042946346333</v>
+        <v>0.330031</v>
       </c>
       <c r="N21">
-        <v>5.22042946346333</v>
+        <v>0.990093</v>
       </c>
       <c r="O21">
-        <v>0.6215352302054737</v>
+        <v>0.03671030005200323</v>
       </c>
       <c r="P21">
-        <v>0.6215352302054737</v>
+        <v>0.04915713364370582</v>
       </c>
       <c r="Q21">
-        <v>3.28174556087848</v>
+        <v>23.83416280650167</v>
       </c>
       <c r="R21">
-        <v>3.28174556087848</v>
+        <v>214.507465258515</v>
       </c>
       <c r="S21">
-        <v>0.003406941299119621</v>
+        <v>0.02214068318933951</v>
       </c>
       <c r="T21">
-        <v>0.003406941299119621</v>
+        <v>0.02996234868901578</v>
       </c>
     </row>
     <row r="22" spans="1:20">
       <c r="A22" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B22" t="s">
         <v>26</v>
@@ -1774,60 +1774,60 @@
         <v>27</v>
       </c>
       <c r="D22" t="s">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2.87992686855066</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H22">
-        <v>2.87992686855066</v>
+        <v>216.653855</v>
       </c>
       <c r="I22">
-        <v>0.02511202213627286</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J22">
-        <v>0.02511202213627286</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K22">
         <v>1</v>
       </c>
       <c r="L22">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M22">
-        <v>1.518772895381</v>
+        <v>0.147963</v>
       </c>
       <c r="N22">
-        <v>1.518772895381</v>
+        <v>0.443889</v>
       </c>
       <c r="O22">
-        <v>0.1808224529738624</v>
+        <v>0.01645835126577368</v>
       </c>
       <c r="P22">
-        <v>0.1808224529738624</v>
+        <v>0.02203864777952266</v>
       </c>
       <c r="Q22">
-        <v>4.373954868634223</v>
+        <v>10.685584782455</v>
       </c>
       <c r="R22">
-        <v>4.373954868634223</v>
+        <v>96.17026304209499</v>
       </c>
       <c r="S22">
-        <v>0.004540817441814791</v>
+        <v>0.009926346030355455</v>
       </c>
       <c r="T22">
-        <v>0.004540817441814791</v>
+        <v>0.01343303810573201</v>
       </c>
     </row>
     <row r="23" spans="1:20">
       <c r="A23" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B23" t="s">
         <v>26</v>
@@ -1836,60 +1836,60 @@
         <v>27</v>
       </c>
       <c r="D23" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2.87992686855066</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H23">
-        <v>2.87992686855066</v>
+        <v>216.653855</v>
       </c>
       <c r="I23">
-        <v>0.02511202213627286</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J23">
-        <v>0.02511202213627286</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K23">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L23">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M23">
-        <v>0.264357165173292</v>
+        <v>0.201726</v>
       </c>
       <c r="N23">
-        <v>0.264357165173292</v>
+        <v>0.605178</v>
       </c>
       <c r="O23">
-        <v>0.03147390318409627</v>
+        <v>0.02243856482660842</v>
       </c>
       <c r="P23">
-        <v>0.03147390318409627</v>
+        <v>0.03004648636464514</v>
       </c>
       <c r="Q23">
-        <v>0.7613293028764484</v>
+        <v>14.56823851791</v>
       </c>
       <c r="R23">
-        <v>0.7613293028764484</v>
+        <v>131.11414666119</v>
       </c>
       <c r="S23">
-        <v>0.0007903733534739345</v>
+        <v>0.01353312706095094</v>
       </c>
       <c r="T23">
-        <v>0.0007903733534739345</v>
+        <v>0.01831399096339555</v>
       </c>
     </row>
     <row r="24" spans="1:20">
       <c r="A24" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B24" t="s">
         <v>26</v>
@@ -1901,57 +1901,57 @@
         <v>24</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2.87992686855066</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H24">
-        <v>2.87992686855066</v>
+        <v>216.653855</v>
       </c>
       <c r="I24">
-        <v>0.02511202213627286</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J24">
-        <v>0.02511202213627286</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L24">
         <v>1</v>
       </c>
       <c r="M24">
-        <v>1.39568996299457</v>
+        <v>1.481375666666667</v>
       </c>
       <c r="N24">
-        <v>1.39568996299457</v>
+        <v>4.444127</v>
       </c>
       <c r="O24">
-        <v>0.1661684136365676</v>
+        <v>0.1647776881961684</v>
       </c>
       <c r="P24">
-        <v>0.1661684136365676</v>
+        <v>0.2206464896414795</v>
       </c>
       <c r="Q24">
-        <v>4.019485024594538</v>
+        <v>106.9819162955094</v>
       </c>
       <c r="R24">
-        <v>4.019485024594538</v>
+        <v>962.8372466595849</v>
       </c>
       <c r="S24">
-        <v>0.004172824881590831</v>
+        <v>0.09938057127985937</v>
       </c>
       <c r="T24">
-        <v>0.004172824881590831</v>
+        <v>0.1344888639675966</v>
       </c>
     </row>
     <row r="25" spans="1:20">
       <c r="A25" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="B25" t="s">
         <v>26</v>
@@ -1963,52 +1963,796 @@
         <v>25</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2.87992686855066</v>
+        <v>72.21795166666666</v>
       </c>
       <c r="H25">
-        <v>2.87992686855066</v>
+        <v>216.653855</v>
       </c>
       <c r="I25">
-        <v>0.02511202213627286</v>
+        <v>0.6031191016683428</v>
       </c>
       <c r="J25">
-        <v>0.02511202213627286</v>
+        <v>0.6095218835619034</v>
       </c>
       <c r="K25">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L25">
         <v>1</v>
       </c>
       <c r="M25">
-        <v>5.22042946346333</v>
+        <v>5.226314</v>
       </c>
       <c r="N25">
-        <v>5.22042946346333</v>
+        <v>10.452628</v>
       </c>
       <c r="O25">
-        <v>0.6215352302054737</v>
+        <v>0.5813379806926779</v>
       </c>
       <c r="P25">
-        <v>0.6215352302054737</v>
+        <v>0.5189625939421262</v>
       </c>
       <c r="Q25">
-        <v>15.03445507720155</v>
+        <v>377.4336918468234</v>
       </c>
       <c r="R25">
-        <v>15.03445507720155</v>
+        <v>2264.60215108094</v>
       </c>
       <c r="S25">
-        <v>0.01560800645939331</v>
+        <v>0.3506160406810563</v>
       </c>
       <c r="T25">
-        <v>0.01560800645939331</v>
+        <v>0.316319057757776</v>
+      </c>
+    </row>
+    <row r="26" spans="1:20">
+      <c r="A26" t="s">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>26</v>
+      </c>
+      <c r="C26" t="s">
+        <v>27</v>
+      </c>
+      <c r="D26" t="s">
+        <v>20</v>
+      </c>
+      <c r="E26">
+        <v>3</v>
+      </c>
+      <c r="F26">
+        <v>1</v>
+      </c>
+      <c r="G26">
+        <v>0.695089</v>
+      </c>
+      <c r="H26">
+        <v>2.085267</v>
+      </c>
+      <c r="I26">
+        <v>0.005804947988479781</v>
+      </c>
+      <c r="J26">
+        <v>0.005866573985353178</v>
+      </c>
+      <c r="K26">
+        <v>2</v>
+      </c>
+      <c r="L26">
+        <v>1</v>
+      </c>
+      <c r="M26">
+        <v>1.6027375</v>
+      </c>
+      <c r="N26">
+        <v>3.205475</v>
+      </c>
+      <c r="O26">
+        <v>0.1782771149667683</v>
+      </c>
+      <c r="P26">
+        <v>0.1591486486285207</v>
+      </c>
+      <c r="Q26">
+        <v>1.1140452061375</v>
+      </c>
+      <c r="R26">
+        <v>6.684271236824999</v>
+      </c>
+      <c r="S26">
+        <v>0.001034889379918321</v>
+      </c>
+      <c r="T26">
+        <v>0.000933657321848193</v>
+      </c>
+    </row>
+    <row r="27" spans="1:20">
+      <c r="A27" t="s">
+        <v>24</v>
+      </c>
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+      <c r="C27" t="s">
+        <v>27</v>
+      </c>
+      <c r="D27" t="s">
+        <v>21</v>
+      </c>
+      <c r="E27">
+        <v>3</v>
+      </c>
+      <c r="F27">
+        <v>1</v>
+      </c>
+      <c r="G27">
+        <v>0.695089</v>
+      </c>
+      <c r="H27">
+        <v>2.085267</v>
+      </c>
+      <c r="I27">
+        <v>0.005804947988479781</v>
+      </c>
+      <c r="J27">
+        <v>0.005866573985353178</v>
+      </c>
+      <c r="K27">
+        <v>3</v>
+      </c>
+      <c r="L27">
+        <v>1</v>
+      </c>
+      <c r="M27">
+        <v>0.330031</v>
+      </c>
+      <c r="N27">
+        <v>0.990093</v>
+      </c>
+      <c r="O27">
+        <v>0.03671030005200323</v>
+      </c>
+      <c r="P27">
+        <v>0.04915713364370582</v>
+      </c>
+      <c r="Q27">
+        <v>0.229400917759</v>
+      </c>
+      <c r="R27">
+        <v>2.064608259831</v>
+      </c>
+      <c r="S27">
+        <v>0.0002131013824433654</v>
+      </c>
+      <c r="T27">
+        <v>0.0002883839614286941</v>
+      </c>
+    </row>
+    <row r="28" spans="1:20">
+      <c r="A28" t="s">
+        <v>24</v>
+      </c>
+      <c r="B28" t="s">
+        <v>26</v>
+      </c>
+      <c r="C28" t="s">
+        <v>27</v>
+      </c>
+      <c r="D28" t="s">
+        <v>22</v>
+      </c>
+      <c r="E28">
+        <v>3</v>
+      </c>
+      <c r="F28">
+        <v>1</v>
+      </c>
+      <c r="G28">
+        <v>0.695089</v>
+      </c>
+      <c r="H28">
+        <v>2.085267</v>
+      </c>
+      <c r="I28">
+        <v>0.005804947988479781</v>
+      </c>
+      <c r="J28">
+        <v>0.005866573985353178</v>
+      </c>
+      <c r="K28">
+        <v>1</v>
+      </c>
+      <c r="L28">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M28">
+        <v>0.147963</v>
+      </c>
+      <c r="N28">
+        <v>0.443889</v>
+      </c>
+      <c r="O28">
+        <v>0.01645835126577368</v>
+      </c>
+      <c r="P28">
+        <v>0.02203864777952266</v>
+      </c>
+      <c r="Q28">
+        <v>0.102847453707</v>
+      </c>
+      <c r="R28">
+        <v>0.9256270833629999</v>
+      </c>
+      <c r="S28">
+        <v>9.553987307394659E-05</v>
+      </c>
+      <c r="T28">
+        <v>0.0001292913577357092</v>
+      </c>
+    </row>
+    <row r="29" spans="1:20">
+      <c r="A29" t="s">
+        <v>24</v>
+      </c>
+      <c r="B29" t="s">
+        <v>26</v>
+      </c>
+      <c r="C29" t="s">
+        <v>27</v>
+      </c>
+      <c r="D29" t="s">
+        <v>23</v>
+      </c>
+      <c r="E29">
+        <v>3</v>
+      </c>
+      <c r="F29">
+        <v>1</v>
+      </c>
+      <c r="G29">
+        <v>0.695089</v>
+      </c>
+      <c r="H29">
+        <v>2.085267</v>
+      </c>
+      <c r="I29">
+        <v>0.005804947988479781</v>
+      </c>
+      <c r="J29">
+        <v>0.005866573985353178</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M29">
+        <v>0.201726</v>
+      </c>
+      <c r="N29">
+        <v>0.605178</v>
+      </c>
+      <c r="O29">
+        <v>0.02243856482660842</v>
+      </c>
+      <c r="P29">
+        <v>0.03004648636464514</v>
+      </c>
+      <c r="Q29">
+        <v>0.140217523614</v>
+      </c>
+      <c r="R29">
+        <v>1.261957712526</v>
+      </c>
+      <c r="S29">
+        <v>0.0001302547017545937</v>
+      </c>
+      <c r="T29">
+        <v>0.0001762699352580962</v>
+      </c>
+    </row>
+    <row r="30" spans="1:20">
+      <c r="A30" t="s">
+        <v>24</v>
+      </c>
+      <c r="B30" t="s">
+        <v>26</v>
+      </c>
+      <c r="C30" t="s">
+        <v>27</v>
+      </c>
+      <c r="D30" t="s">
+        <v>24</v>
+      </c>
+      <c r="E30">
+        <v>3</v>
+      </c>
+      <c r="F30">
+        <v>1</v>
+      </c>
+      <c r="G30">
+        <v>0.695089</v>
+      </c>
+      <c r="H30">
+        <v>2.085267</v>
+      </c>
+      <c r="I30">
+        <v>0.005804947988479781</v>
+      </c>
+      <c r="J30">
+        <v>0.005866573985353178</v>
+      </c>
+      <c r="K30">
+        <v>3</v>
+      </c>
+      <c r="L30">
+        <v>1</v>
+      </c>
+      <c r="M30">
+        <v>1.481375666666667</v>
+      </c>
+      <c r="N30">
+        <v>4.444127</v>
+      </c>
+      <c r="O30">
+        <v>0.1647776881961684</v>
+      </c>
+      <c r="P30">
+        <v>0.2206464896414795</v>
+      </c>
+      <c r="Q30">
+        <v>1.029687930767667</v>
+      </c>
+      <c r="R30">
+        <v>9.267191376909</v>
+      </c>
+      <c r="S30">
+        <v>0.0009565259096406963</v>
+      </c>
+      <c r="T30">
+        <v>0.001294438956090203</v>
+      </c>
+    </row>
+    <row r="31" spans="1:20">
+      <c r="A31" t="s">
+        <v>24</v>
+      </c>
+      <c r="B31" t="s">
+        <v>26</v>
+      </c>
+      <c r="C31" t="s">
+        <v>27</v>
+      </c>
+      <c r="D31" t="s">
+        <v>25</v>
+      </c>
+      <c r="E31">
+        <v>3</v>
+      </c>
+      <c r="F31">
+        <v>1</v>
+      </c>
+      <c r="G31">
+        <v>0.695089</v>
+      </c>
+      <c r="H31">
+        <v>2.085267</v>
+      </c>
+      <c r="I31">
+        <v>0.005804947988479781</v>
+      </c>
+      <c r="J31">
+        <v>0.005866573985353178</v>
+      </c>
+      <c r="K31">
+        <v>2</v>
+      </c>
+      <c r="L31">
+        <v>1</v>
+      </c>
+      <c r="M31">
+        <v>5.226314</v>
+      </c>
+      <c r="N31">
+        <v>10.452628</v>
+      </c>
+      <c r="O31">
+        <v>0.5813379806926779</v>
+      </c>
+      <c r="P31">
+        <v>0.5189625939421262</v>
+      </c>
+      <c r="Q31">
+        <v>3.632753371946</v>
+      </c>
+      <c r="R31">
+        <v>21.796520231676</v>
+      </c>
+      <c r="S31">
+        <v>0.003374636741648859</v>
+      </c>
+      <c r="T31">
+        <v>0.003044532452992283</v>
+      </c>
+    </row>
+    <row r="32" spans="1:20">
+      <c r="A32" t="s">
+        <v>25</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32" t="s">
+        <v>27</v>
+      </c>
+      <c r="D32" t="s">
+        <v>20</v>
+      </c>
+      <c r="E32">
+        <v>2</v>
+      </c>
+      <c r="F32">
+        <v>1</v>
+      </c>
+      <c r="G32">
+        <v>3.1237945</v>
+      </c>
+      <c r="H32">
+        <v>6.247589</v>
+      </c>
+      <c r="I32">
+        <v>0.026087975207778</v>
+      </c>
+      <c r="J32">
+        <v>0.01757661877283757</v>
+      </c>
+      <c r="K32">
+        <v>2</v>
+      </c>
+      <c r="L32">
+        <v>1</v>
+      </c>
+      <c r="M32">
+        <v>1.6027375</v>
+      </c>
+      <c r="N32">
+        <v>3.205475</v>
+      </c>
+      <c r="O32">
+        <v>0.1782771149667683</v>
+      </c>
+      <c r="P32">
+        <v>0.1591486486285207</v>
+      </c>
+      <c r="Q32">
+        <v>5.00662258744375</v>
+      </c>
+      <c r="R32">
+        <v>20.026490349775</v>
+      </c>
+      <c r="S32">
+        <v>0.004650888955367241</v>
+      </c>
+      <c r="T32">
+        <v>0.002797295125155786</v>
+      </c>
+    </row>
+    <row r="33" spans="1:20">
+      <c r="A33" t="s">
+        <v>25</v>
+      </c>
+      <c r="B33" t="s">
+        <v>26</v>
+      </c>
+      <c r="C33" t="s">
+        <v>27</v>
+      </c>
+      <c r="D33" t="s">
+        <v>21</v>
+      </c>
+      <c r="E33">
+        <v>2</v>
+      </c>
+      <c r="F33">
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <v>3.1237945</v>
+      </c>
+      <c r="H33">
+        <v>6.247589</v>
+      </c>
+      <c r="I33">
+        <v>0.026087975207778</v>
+      </c>
+      <c r="J33">
+        <v>0.01757661877283757</v>
+      </c>
+      <c r="K33">
+        <v>3</v>
+      </c>
+      <c r="L33">
+        <v>1</v>
+      </c>
+      <c r="M33">
+        <v>0.330031</v>
+      </c>
+      <c r="N33">
+        <v>0.990093</v>
+      </c>
+      <c r="O33">
+        <v>0.03671030005200323</v>
+      </c>
+      <c r="P33">
+        <v>0.04915713364370582</v>
+      </c>
+      <c r="Q33">
+        <v>1.0309490226295</v>
+      </c>
+      <c r="R33">
+        <v>6.185694135776999</v>
+      </c>
+      <c r="S33">
+        <v>0.0009576973976267516</v>
+      </c>
+      <c r="T33">
+        <v>0.0008640161980208448</v>
+      </c>
+    </row>
+    <row r="34" spans="1:20">
+      <c r="A34" t="s">
+        <v>25</v>
+      </c>
+      <c r="B34" t="s">
+        <v>26</v>
+      </c>
+      <c r="C34" t="s">
+        <v>27</v>
+      </c>
+      <c r="D34" t="s">
+        <v>22</v>
+      </c>
+      <c r="E34">
+        <v>2</v>
+      </c>
+      <c r="F34">
+        <v>1</v>
+      </c>
+      <c r="G34">
+        <v>3.1237945</v>
+      </c>
+      <c r="H34">
+        <v>6.247589</v>
+      </c>
+      <c r="I34">
+        <v>0.026087975207778</v>
+      </c>
+      <c r="J34">
+        <v>0.01757661877283757</v>
+      </c>
+      <c r="K34">
+        <v>1</v>
+      </c>
+      <c r="L34">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M34">
+        <v>0.147963</v>
+      </c>
+      <c r="N34">
+        <v>0.443889</v>
+      </c>
+      <c r="O34">
+        <v>0.01645835126577368</v>
+      </c>
+      <c r="P34">
+        <v>0.02203864777952266</v>
+      </c>
+      <c r="Q34">
+        <v>0.4622060056034999</v>
+      </c>
+      <c r="R34">
+        <v>2.773236033621</v>
+      </c>
+      <c r="S34">
+        <v>0.0004293650597824054</v>
+      </c>
+      <c r="T34">
+        <v>0.000387364910289513</v>
+      </c>
+    </row>
+    <row r="35" spans="1:20">
+      <c r="A35" t="s">
+        <v>25</v>
+      </c>
+      <c r="B35" t="s">
+        <v>26</v>
+      </c>
+      <c r="C35" t="s">
+        <v>27</v>
+      </c>
+      <c r="D35" t="s">
+        <v>23</v>
+      </c>
+      <c r="E35">
+        <v>2</v>
+      </c>
+      <c r="F35">
+        <v>1</v>
+      </c>
+      <c r="G35">
+        <v>3.1237945</v>
+      </c>
+      <c r="H35">
+        <v>6.247589</v>
+      </c>
+      <c r="I35">
+        <v>0.026087975207778</v>
+      </c>
+      <c r="J35">
+        <v>0.01757661877283757</v>
+      </c>
+      <c r="K35">
+        <v>2</v>
+      </c>
+      <c r="L35">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M35">
+        <v>0.201726</v>
+      </c>
+      <c r="N35">
+        <v>0.605178</v>
+      </c>
+      <c r="O35">
+        <v>0.02243856482660842</v>
+      </c>
+      <c r="P35">
+        <v>0.03004648636464514</v>
+      </c>
+      <c r="Q35">
+        <v>0.630150569307</v>
+      </c>
+      <c r="R35">
+        <v>3.780903415842</v>
+      </c>
+      <c r="S35">
+        <v>0.0005853767228946799</v>
+      </c>
+      <c r="T35">
+        <v>0.0005281156362946297</v>
+      </c>
+    </row>
+    <row r="36" spans="1:20">
+      <c r="A36" t="s">
+        <v>25</v>
+      </c>
+      <c r="B36" t="s">
+        <v>26</v>
+      </c>
+      <c r="C36" t="s">
+        <v>27</v>
+      </c>
+      <c r="D36" t="s">
+        <v>24</v>
+      </c>
+      <c r="E36">
+        <v>2</v>
+      </c>
+      <c r="F36">
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <v>3.1237945</v>
+      </c>
+      <c r="H36">
+        <v>6.247589</v>
+      </c>
+      <c r="I36">
+        <v>0.026087975207778</v>
+      </c>
+      <c r="J36">
+        <v>0.01757661877283757</v>
+      </c>
+      <c r="K36">
+        <v>3</v>
+      </c>
+      <c r="L36">
+        <v>1</v>
+      </c>
+      <c r="M36">
+        <v>1.481375666666667</v>
+      </c>
+      <c r="N36">
+        <v>4.444127</v>
+      </c>
+      <c r="O36">
+        <v>0.1647776881961684</v>
+      </c>
+      <c r="P36">
+        <v>0.2206464896414795</v>
+      </c>
+      <c r="Q36">
+        <v>4.627513159967166</v>
+      </c>
+      <c r="R36">
+        <v>27.765078959803</v>
+      </c>
+      <c r="S36">
+        <v>0.004298716244456615</v>
+      </c>
+      <c r="T36">
+        <v>0.003878219231993139</v>
+      </c>
+    </row>
+    <row r="37" spans="1:20">
+      <c r="A37" t="s">
+        <v>25</v>
+      </c>
+      <c r="B37" t="s">
+        <v>26</v>
+      </c>
+      <c r="C37" t="s">
+        <v>27</v>
+      </c>
+      <c r="D37" t="s">
+        <v>25</v>
+      </c>
+      <c r="E37">
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <v>1</v>
+      </c>
+      <c r="G37">
+        <v>3.1237945</v>
+      </c>
+      <c r="H37">
+        <v>6.247589</v>
+      </c>
+      <c r="I37">
+        <v>0.026087975207778</v>
+      </c>
+      <c r="J37">
+        <v>0.01757661877283757</v>
+      </c>
+      <c r="K37">
+        <v>2</v>
+      </c>
+      <c r="L37">
+        <v>1</v>
+      </c>
+      <c r="M37">
+        <v>5.226314</v>
+      </c>
+      <c r="N37">
+        <v>10.452628</v>
+      </c>
+      <c r="O37">
+        <v>0.5813379806926779</v>
+      </c>
+      <c r="P37">
+        <v>0.5189625939421262</v>
+      </c>
+      <c r="Q37">
+        <v>16.325930928473</v>
+      </c>
+      <c r="R37">
+        <v>65.303723713892</v>
+      </c>
+      <c r="S37">
+        <v>0.01516593082765031</v>
+      </c>
+      <c r="T37">
+        <v>0.009121607671083654</v>
       </c>
     </row>
   </sheetData>
